--- a/docs/StructureDefinition-argo-write-observation.xlsx
+++ b/docs/StructureDefinition-argo-write-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -489,20 +489,44 @@
     <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
     <t xml:space="preserve">pattern:this}
 </t>
   </si>
   <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Observation.meta.security.id</t>
-  </si>
-  <si>
-    <t>Observation.meta.security.extension</t>
-  </si>
-  <si>
-    <t>Observation.meta.security.system</t>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag.id</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag.extension</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -526,7 +550,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.meta.security.version</t>
+    <t>Observation.meta.tag.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -547,7 +571,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.meta.security.code</t>
+    <t>Observation.meta.tag.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -572,7 +596,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.meta.security.display</t>
+    <t>Observation.meta.tag.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -593,7 +617,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.meta.security.userSelected</t>
+    <t>Observation.meta.tag.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -621,67 +645,13 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>IntegrityLabel</t>
-  </si>
-  <si>
-    <t>Data Integrity Label</t>
+    <t>UploadedData</t>
+  </si>
+  <si>
+    <t>Uploaded Data Tag</t>
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-SecurityIntegrityObservationValue</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.id</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.extension</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.system</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.version</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.code</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.display</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag.userSelected</t>
-  </si>
-  <si>
-    <t>PatientSupplied</t>
-  </si>
-  <si>
-    <t>Patient Supplied Tag</t>
   </si>
   <si>
     <t>http://www.fhir.org/guides/argonaut/argo-write/ValueSet/tags</t>
@@ -2053,7 +2023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2063,7 +2033,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2086,7 +2056,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.6953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -3295,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3351,17 +3321,19 @@
         <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3396,7 +3368,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3404,30 +3376,32 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>81</v>
@@ -3452,43 +3426,41 @@
         <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -3500,7 +3472,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3511,18 +3483,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3534,17 +3506,15 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>81</v>
@@ -3581,31 +3551,31 @@
         <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>81</v>
@@ -3626,45 +3596,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3700,31 +3668,31 @@
         <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>81</v>
@@ -3733,10 +3701,10 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3745,7 +3713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>164</v>
       </c>
@@ -3761,7 +3729,7 @@
         <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3770,7 +3738,7 @@
         <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>165</v>
@@ -3781,7 +3749,9 @@
       <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3829,7 +3799,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3850,10 +3820,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3862,9 +3832,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3872,13 +3842,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3887,7 +3857,7 @@
         <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>173</v>
@@ -3895,10 +3865,10 @@
       <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3979,7 +3949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>179</v>
       </c>
@@ -3989,13 +3959,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -4004,17 +3974,17 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4063,7 +4033,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4084,10 +4054,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4098,7 +4068,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4121,7 +4091,7 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>188</v>
@@ -4129,11 +4099,9 @@
       <c r="L18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
@@ -4182,7 +4150,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4203,37 +4171,35 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4242,18 +4208,20 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4277,11 +4245,13 @@
         <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>81</v>
@@ -4299,13 +4269,13 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4320,10 +4290,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4332,11 +4302,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4345,7 +4317,7 @@
         <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>92</v>
@@ -4360,13 +4332,13 @@
         <v>145</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4392,29 +4364,29 @@
         <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4466,21 +4438,23 @@
         <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4529,7 +4503,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4541,7 +4515,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>81</v>
@@ -4553,7 +4527,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4564,18 +4538,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4587,16 +4561,16 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4622,43 +4596,43 @@
         <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>81</v>
@@ -4670,7 +4644,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4679,13 +4653,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4695,29 +4669,27 @@
         <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4765,7 +4737,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4786,10 +4758,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4800,18 +4772,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -4820,19 +4792,19 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4882,19 +4854,19 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -4903,10 +4875,10 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4915,9 +4887,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4925,33 +4897,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4987,31 +4957,29 @@
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -5020,10 +4988,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5032,11 +5000,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5048,27 +5018,25 @@
         <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5116,19 +5084,19 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>81</v>
@@ -5137,10 +5105,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5149,11 +5117,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5165,29 +5135,25 @@
         <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5235,19 +5201,19 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>81</v>
@@ -5256,10 +5222,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5268,45 +5234,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5330,11 +5296,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5352,7 +5320,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5364,7 +5332,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>81</v>
@@ -5376,7 +5344,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5387,7 +5355,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5398,30 +5366,30 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5469,13 +5437,13 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>81</v>
@@ -5484,61 +5452,61 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5562,13 +5530,13 @@
         <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>81</v>
@@ -5586,13 +5554,13 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>81</v>
@@ -5601,16 +5569,16 @@
         <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5621,18 +5589,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5641,19 +5609,19 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5703,13 +5671,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5718,16 +5686,16 @@
         <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5738,41 +5706,43 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5796,13 +5766,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5820,34 +5790,34 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5855,7 +5825,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5878,16 +5848,20 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5911,29 +5885,31 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5945,7 +5921,7 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5957,52 +5933,54 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6026,13 +6004,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -6050,46 +6028,44 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6101,25 +6077,29 @@
         <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6167,34 +6147,34 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6202,11 +6182,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6219,26 +6199,24 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6286,7 +6264,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6298,7 +6276,7 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>81</v>
@@ -6307,13 +6285,13 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6321,18 +6299,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>81</v>
@@ -6344,17 +6322,19 @@
         <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6403,13 +6383,13 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
@@ -6418,41 +6398,41 @@
         <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6461,17 +6441,19 @@
         <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6520,13 +6502,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6535,19 +6517,19 @@
         <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6555,18 +6537,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6578,16 +6560,16 @@
         <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6637,13 +6619,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6652,27 +6634,27 @@
         <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6680,34 +6662,32 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6732,13 +6712,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6756,13 +6736,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6771,19 +6751,19 @@
         <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6791,7 +6771,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6802,7 +6782,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6811,22 +6791,22 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6851,13 +6831,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -6875,16 +6855,16 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
@@ -6893,32 +6873,32 @@
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>91</v>
@@ -6930,22 +6910,22 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6970,13 +6950,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6994,53 +6974,53 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -7049,22 +7029,22 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7089,13 +7069,13 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7113,13 +7093,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7128,27 +7108,27 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7168,21 +7148,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7230,7 +7212,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7251,13 +7233,13 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7265,11 +7247,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7285,23 +7267,21 @@
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7325,13 +7305,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7349,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7364,31 +7344,31 @@
         <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7404,22 +7384,22 @@
         <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7444,13 +7424,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7468,7 +7448,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7483,19 +7463,19 @@
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7503,7 +7483,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7523,19 +7503,19 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7585,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7603,24 +7583,24 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7631,7 +7611,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
@@ -7640,21 +7620,21 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7702,13 +7682,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7717,27 +7697,27 @@
         <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7748,7 +7728,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7757,22 +7737,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7821,42 +7801,42 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>103</v>
+        <v>453</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7879,20 +7859,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7916,13 +7892,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7940,7 +7916,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7949,10 +7925,10 @@
         <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -7961,10 +7937,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7975,11 +7951,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>401</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7998,20 +7974,18 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>113</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8035,13 +8009,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8059,7 +8033,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8071,34 +8045,34 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8111,25 +8085,25 @@
         <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>413</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
+        <v>114</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8178,7 +8152,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8190,7 +8164,7 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
@@ -8199,10 +8173,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8213,7 +8187,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8236,17 +8210,15 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -8271,13 +8243,13 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8295,7 +8267,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8304,7 +8276,7 @@
         <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>103</v>
@@ -8313,24 +8285,24 @@
         <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8353,20 +8325,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8390,13 +8358,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8414,7 +8382,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8423,7 +8391,7 @@
         <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>103</v>
@@ -8435,10 +8403,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8449,7 +8417,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8472,18 +8440,20 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>293</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8507,13 +8477,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8531,7 +8501,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8549,24 +8519,24 @@
         <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8577,10 +8547,10 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8589,18 +8559,20 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8624,13 +8596,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8648,13 +8620,13 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
@@ -8666,24 +8638,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8694,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8706,19 +8678,17 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8767,19 +8737,19 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>81</v>
@@ -8788,10 +8758,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8802,7 +8772,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8828,10 +8798,10 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8882,7 +8852,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>107</v>
+        <v>496</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8894,7 +8864,7 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>81</v>
@@ -8903,10 +8873,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8917,11 +8887,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8937,19 +8907,19 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>113</v>
+        <v>503</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>114</v>
+        <v>504</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8999,7 +8969,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>118</v>
+        <v>500</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9011,7 +8981,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>81</v>
@@ -9020,10 +8990,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>108</v>
+        <v>506</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9034,11 +9004,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9051,26 +9021,24 @@
         <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>111</v>
+        <v>508</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9118,7 +9086,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9130,7 +9098,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9139,10 +9107,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>245</v>
+        <v>512</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9153,7 +9121,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9164,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9173,19 +9141,23 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9233,16 +9205,16 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>103</v>
@@ -9254,10 +9226,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9268,7 +9240,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9291,13 +9263,13 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>474</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>106</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9348,7 +9320,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9357,10 +9329,10 @@
         <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9369,10 +9341,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>483</v>
+        <v>108</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9383,18 +9355,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
@@ -9406,20 +9378,18 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9443,13 +9413,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9467,31 +9437,31 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>484</v>
+        <v>118</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9502,11 +9472,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9519,25 +9489,25 @@
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>496</v>
+        <v>114</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>497</v>
+        <v>251</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9562,13 +9532,13 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9586,7 +9556,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9598,19 +9568,19 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>410</v>
+        <v>235</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9621,7 +9591,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9629,7 +9599,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9641,20 +9611,22 @@
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>501</v>
+        <v>293</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>504</v>
+        <v>307</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9679,13 +9651,13 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9703,10 +9675,10 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
@@ -9721,16 +9693,16 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>505</v>
+        <v>313</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9738,7 +9710,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9758,19 +9730,23 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9818,7 +9794,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9836,24 +9812,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>509</v>
+        <v>379</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9864,7 +9840,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9873,21 +9849,23 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>511</v>
+        <v>293</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9911,13 +9889,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9935,16 +9913,16 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9956,10 +9934,10 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>515</v>
+        <v>235</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9970,11 +9948,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9990,21 +9968,23 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>518</v>
+        <v>293</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>520</v>
+        <v>393</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10028,13 +10008,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -10052,7 +10032,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10070,24 +10050,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>522</v>
+        <v>400</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10107,22 +10087,22 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10171,7 +10151,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10192,966 +10172,20 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11161,7 +10195,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-argo-write-observation.xlsx
+++ b/docs/StructureDefinition-argo-write-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/sushi-sandbox/StructureDefinition/argo-write-observation</t>
+    <t>http://www.fhir.org/guides/healthedata1-sandbox/StructureDefinition/argo-write-observation</t>
   </si>
   <si>
     <t>Version</t>
